--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D965A0-A0E4-4877-936D-F4A31B70F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5982D9-512F-4056-8B74-A005E685B7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Title</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>reseeding is ordered</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www-jstor-org.ezp-prod1.hul.harvard.edu/stable/pdf/2286606.pdf?refreqid=excelsior%3Ac6f9f27cd7701f5e7471bf45a00f7c81&amp;ab_segments=&amp;origin=&amp;initiator=&amp;acceptTC=1</t>
+  </si>
+  <si>
+    <t>Do Stronger Players Win More Knockout Tournaments</t>
+  </si>
+  <si>
+    <t>defined ordered</t>
   </si>
 </sst>
 </file>
@@ -610,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
-  <dimension ref="B4:H19"/>
+  <dimension ref="B4:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,9 +675,6 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
@@ -812,6 +821,9 @@
       <c r="C12" t="s">
         <v>47</v>
       </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
       <c r="E12" t="s">
         <v>45</v>
       </c>
@@ -963,6 +975,29 @@
       </c>
       <c r="H19" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>1978</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -971,5 +1006,6 @@
     <sortCondition ref="F5:F19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5982D9-512F-4056-8B74-A005E685B7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D3292-8A57-43EE-A0A0-5C28A3692E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>Title</t>
   </si>
@@ -262,6 +261,21 @@
   </si>
   <si>
     <t>defined ordered</t>
+  </si>
+  <si>
+    <t>The UPA Manual of Championship Series Tournament Formats</t>
+  </si>
+  <si>
+    <t>Eric Simon</t>
+  </si>
+  <si>
+    <t>https://usaultimate.org/wp-content/uploads/2020/11/USAU_TournamentFormats.pdf</t>
+  </si>
+  <si>
+    <t>Semibrackets</t>
+  </si>
+  <si>
+    <t>ultimate formats</t>
   </si>
 </sst>
 </file>
@@ -622,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
-  <dimension ref="B4:H20"/>
+  <dimension ref="B4:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,6 +1014,29 @@
         <v>74</v>
       </c>
     </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>2008</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H19">
     <sortCondition descending="1" ref="G5:G19"/>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D3292-8A57-43EE-A0A0-5C28A3692E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638CE450-0B6F-4506-A289-BE13AE43BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -639,7 +640,7 @@
   <dimension ref="B4:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +823,7 @@
         <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
         <v>70</v>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638CE450-0B6F-4506-A289-BE13AE43BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA3D696-B248-40B5-9A0C-450FD1B50285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>Title</t>
   </si>
@@ -66,9 +65,6 @@
     <t>Ordered Brackets</t>
   </si>
   <si>
-    <t>Todd's Theorem</t>
-  </si>
-  <si>
     <t>https://sci-hub.se/https://www.jstor.org/stable/170742</t>
   </si>
   <si>
@@ -129,9 +125,6 @@
     <t>T McGarry and RW Schutz</t>
   </si>
   <si>
-    <t>Multiple Elimination</t>
-  </si>
-  <si>
     <t>Swapping 4th and 5th in swiss vs in 3rd place games</t>
   </si>
   <si>
@@ -237,9 +230,6 @@
     <t>cohort randomized</t>
   </si>
   <si>
-    <t>What is the Correct Way to Seed a Knockout Tournaments</t>
-  </si>
-  <si>
     <t>https://www-jstor-org.ezp-prod1.hul.harvard.edu/stable/pdf/2320220.pdf?refreqid=excelsior%3A5ecd05b3217d589d8ca6170e0208a599&amp;ab_segments=&amp;origin=&amp;initiator=&amp;acceptTC=1</t>
   </si>
   <si>
@@ -277,6 +267,27 @@
   </si>
   <si>
     <t>ultimate formats</t>
+  </si>
+  <si>
+    <t>Anomalies in Tournament Design: The Madness of March Madness</t>
+  </si>
+  <si>
+    <t>Robert Baumann, Victor Matheson, Cara Howe</t>
+  </si>
+  <si>
+    <t>https://sci-hub.se/https://doi.org/10.2202/1559-0410.1233</t>
+  </si>
+  <si>
+    <t>Swiss Systems</t>
+  </si>
+  <si>
+    <t>Edward's Theorem</t>
+  </si>
+  <si>
+    <t>downisdes of reseeding</t>
+  </si>
+  <si>
+    <t>What is the Correct Way to Seed a Knockout Tournament</t>
   </si>
 </sst>
 </file>
@@ -637,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
-  <dimension ref="B4:H21"/>
+  <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>3</v>
@@ -676,372 +687,395 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>1991</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+        <v>1963</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>1963</v>
+        <v>2011</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>1982</v>
       </c>
       <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
         <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>71</v>
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>1997</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <v>1981</v>
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
         <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>2018</v>
+        <v>1981</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D15">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>2015</v>
+        <v>2011</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>2017</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
+        <v>2015</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>1978</v>
+        <v>2008</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="F21" t="s">
+      <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="D22">
+        <v>2010</v>
+      </c>
+      <c r="E22" t="s">
         <v>79</v>
       </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H19">
-    <sortCondition descending="1" ref="G5:G19"/>
-    <sortCondition ref="F5:F19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H22">
+    <sortCondition descending="1" ref="G5:G22"/>
+    <sortCondition ref="F5:F22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA3D696-B248-40B5-9A0C-450FD1B50285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE8144-D8C5-4180-A481-30BF01BBCF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE8144-D8C5-4180-A481-30BF01BBCF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B9CEB-24F0-467A-9DBA-DC2860C2DFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B9CEB-24F0-467A-9DBA-DC2860C2DFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DC60B5-28D1-458C-8E36-10A00ACA60E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>Title</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Jeff Horen and Raymond Riezman</t>
   </si>
   <si>
-    <t>Defining Ordered (named fairness), proving 8-balanced is not ordered</t>
-  </si>
-  <si>
     <t>The Method of Paired Comparisons</t>
   </si>
   <si>
@@ -248,12 +245,6 @@
     <t>https://www-jstor-org.ezp-prod1.hul.harvard.edu/stable/pdf/2286606.pdf?refreqid=excelsior%3Ac6f9f27cd7701f5e7471bf45a00f7c81&amp;ab_segments=&amp;origin=&amp;initiator=&amp;acceptTC=1</t>
   </si>
   <si>
-    <t>Do Stronger Players Win More Knockout Tournaments</t>
-  </si>
-  <si>
-    <t>defined ordered</t>
-  </si>
-  <si>
     <t>The UPA Manual of Championship Series Tournament Formats</t>
   </si>
   <si>
@@ -288,6 +279,18 @@
   </si>
   <si>
     <t>What is the Correct Way to Seed a Knockout Tournament</t>
+  </si>
+  <si>
+    <t>FRK Chung and F. K. Hwang</t>
+  </si>
+  <si>
+    <t>Do Stronger Players Win More Knockout Tournaments?</t>
+  </si>
+  <si>
+    <t>first mention of ordereness (unamed)</t>
+  </si>
+  <si>
+    <t>proving 8-balanced is not ordered</t>
   </si>
 </sst>
 </file>
@@ -650,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
   <dimension ref="B4:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>3</v>
@@ -702,18 +705,18 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>1963</v>
@@ -722,33 +725,33 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -768,308 +771,308 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>1978</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>2008</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
       </c>
       <c r="D11">
         <v>1982</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>1997</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
         <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
       </c>
       <c r="D14">
         <v>1981</v>
       </c>
       <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>2018</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
       </c>
       <c r="D16">
         <v>2012</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
         <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>2011</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
       </c>
       <c r="D18">
         <v>2011</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
       </c>
       <c r="D19">
         <v>2015</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
       </c>
       <c r="D20">
         <v>2008</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D22">
         <v>2010</v>
       </c>
       <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
         <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DC60B5-28D1-458C-8E36-10A00ACA60E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509886C-6787-478C-9D2E-36C00F10294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t>Title</t>
   </si>
@@ -291,6 +291,21 @@
   </si>
   <si>
     <t>proving 8-balanced is not ordered</t>
+  </si>
+  <si>
+    <t>https://ajc.maths.uq.edu.au/pdf/20/ocr-ajc-v20-p19.pdf</t>
+  </si>
+  <si>
+    <t>Landau's Theorem revisited</t>
+  </si>
+  <si>
+    <t>Jerrold Griggs, K. B. Reid</t>
+  </si>
+  <si>
+    <t>Round Robins</t>
+  </si>
+  <si>
+    <t>nice proof</t>
   </si>
 </sst>
 </file>
@@ -651,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
-  <dimension ref="B4:H22"/>
+  <dimension ref="B4:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,6 +1090,29 @@
         <v>79</v>
       </c>
     </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23">
+        <v>1999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H22">
     <sortCondition descending="1" ref="G5:G22"/>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509886C-6787-478C-9D2E-36C00F10294B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFBC121-0A7C-4068-9A4D-282F99984362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -669,7 +669,7 @@
   <dimension ref="B4:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFBC121-0A7C-4068-9A4D-282F99984362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FFAF6E-A412-4E95-82B5-D0C8C5F74CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>Title</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>nice proof</t>
+  </si>
+  <si>
+    <t>Dabney things</t>
+  </si>
+  <si>
+    <t>Lewis Carol</t>
+  </si>
+  <si>
+    <t>Art of computing</t>
   </si>
 </sst>
 </file>
@@ -666,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
-  <dimension ref="B4:H23"/>
+  <dimension ref="B4:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,6 +1122,21 @@
         <v>89</v>
       </c>
     </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H22">
     <sortCondition descending="1" ref="G5:G22"/>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FFAF6E-A412-4E95-82B5-D0C8C5F74CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16FC4FB-337E-4F06-A08A-496B892F8146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>Title</t>
   </si>
@@ -314,7 +314,25 @@
     <t>Lewis Carol</t>
   </si>
   <si>
-    <t>Art of computing</t>
+    <t>The Art of Computer Programing</t>
+  </si>
+  <si>
+    <t>Donald Knuth</t>
+  </si>
+  <si>
+    <t>https://doc.lagout.org/science/0_Computer%20Science/2_Algorithms/The%20Art%20of%20Computer%20Programming%20%28vol.%203_%20Sorting%20and%20Searching%29%20%282nd%20ed.%29%20%5BKnuth%201998-05-04%5D.pdf</t>
+  </si>
+  <si>
+    <t>Multibrackets</t>
+  </si>
+  <si>
+    <t>networked</t>
+  </si>
+  <si>
+    <t>https://www-degruyter-com.ezp-prod1.hul.harvard.edu/document/doi/10.1515/jqas-2012-0055/pdf?stream=true</t>
+  </si>
+  <si>
+    <t>(double elim designs?)</t>
   </si>
 </sst>
 </file>
@@ -675,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
-  <dimension ref="B4:H28"/>
+  <dimension ref="B4:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,19 +1140,45 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24">
+        <v>1938</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>92</v>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16FC4FB-337E-4F06-A08A-496B892F8146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1723C22-4BC4-4AA8-BA95-E177E076155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
   <si>
     <t>Title</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>(double elim designs?)</t>
+  </si>
+  <si>
+    <t>https://epub.ub.uni-muenchen.de/13411/1/140.pdf</t>
+  </si>
+  <si>
+    <t>(four team all pay auction model)</t>
+  </si>
+  <si>
+    <t>https://www.desmos.com/calculator/sr17m1a2yz</t>
   </si>
 </sst>
 </file>
@@ -693,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
-  <dimension ref="B4:H31"/>
+  <dimension ref="B4:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,6 +1190,19 @@
         <v>98</v>
       </c>
     </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H22">
     <sortCondition descending="1" ref="G5:G22"/>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1723C22-4BC4-4AA8-BA95-E177E076155A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAF0658-B78F-47D5-830F-7A5D63A78A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>

--- a/thesis-tex/references.xlsx
+++ b/thesis-tex/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAF0658-B78F-47D5-830F-7A5D63A78A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BC60E7C-6E96-42D5-8233-5FB1AFA0B5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{708375FB-6962-4B20-A84D-3D0BF229F98B}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -406,9 +407,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -446,7 +447,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -552,7 +553,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -694,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C99330B-41D4-434B-87B1-F3F6E5AC9A2D}">
   <dimension ref="B4:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
